--- a/output/0/tRNA-Ser-GCT-5-1.xlsx
+++ b/output/0/tRNA-Ser-GCT-5-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>28180690</t>
-  </si>
-  <si>
-    <t>28180713</t>
+    <t>28180815</t>
+  </si>
+  <si>
+    <t>28180838</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>28180710</t>
+    <t>28180835</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,64 +38,40 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>AAGACACCTGACTCAGACTG</t>
+    <t>ACGAGGTGGCCGAGTGGTTA</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>21% (39)</t>
+  </si>
+  <si>
+    <t>88% (67)</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>28180821</t>
+  </si>
+  <si>
+    <t>28180844</t>
+  </si>
+  <si>
+    <t>28180841</t>
+  </si>
+  <si>
+    <t>TGGCCGAGTGGTTAAGGCGA</t>
   </si>
   <si>
     <t>TGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>89% (63)</t>
-  </si>
-  <si>
-    <t>84% (64)</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>28180815</t>
-  </si>
-  <si>
-    <t>28180838</t>
-  </si>
-  <si>
-    <t>28180835</t>
-  </si>
-  <si>
-    <t>ACGAGGTGGCCGAGTGGTTA</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>21% (39)</t>
-  </si>
-  <si>
-    <t>88% (67)</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>28180821</t>
-  </si>
-  <si>
-    <t>28180844</t>
-  </si>
-  <si>
-    <t>28180841</t>
-  </si>
-  <si>
-    <t>TGGCCGAGTGGTTAAGGCGA</t>
   </si>
   <si>
     <t>66% (55)</t>
@@ -179,7 +155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -232,13 +208,13 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -249,10 +225,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -261,10 +237,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -276,28 +252,28 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>3</v>
       </c>
       <c r="Q2" t="s">
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
@@ -317,13 +293,13 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -335,89 +311,30 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" t="s">
         <v>3</v>
       </c>
     </row>
